--- a/biology/Zoologie/Hoplobatrachus_rugulosus/Hoplobatrachus_rugulosus.xlsx
+++ b/biology/Zoologie/Hoplobatrachus_rugulosus/Hoplobatrachus_rugulosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hoplobatrachus rugulosus est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoplobatrachus rugulosus est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre,
 en Birmanie, en Thaïlande, en Malaisie occidentale ;
 au Cambodge, au Laos, au Viêt Nam ;
 en Chine, dans l'est du Sichuan, à Chongqing, au Yunnan, au Guizhou, au Guangxi, au Guangdong, à Hainan, à Hong Kong, à Macao, au Hunan, au Jiangxi, au Fujian, au Zhejiang, au Hubei, dans le sud du Shaanxi, au Anhui, au Jiangsu, au Henan, au Shandong et dans le Sud du Hebei ;
@@ -547,10 +561,12 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoplobatrachus rugulosus est consommée en Chine et en Asie du Sud-Est, comme l'indique son nom vernaculaire anglais, Chinese Edible Frog (« grenouille chinoise comestible »).
-Un article a démontré que cette espèce était souvent parasitée par la bactérie Laribacter hongkongensis responsable de gastro-entérite et qu'il convenait d'être prudent dans la manipulation et la cuisson de ces grenouilles[3].
+Un article a démontré que cette espèce était souvent parasitée par la bactérie Laribacter hongkongensis responsable de gastro-entérite et qu'il convenait d'être prudent dans la manipulation et la cuisson de ces grenouilles.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1834 : Amphibien. Reise um die erde ausgeführt auf dem Königlich preussischen seehandlungs-schiffe Prinzess Louise, commandirt von captain W. Wendt, in den jahren 1830, 1831 und 1832, vol. 3, p. 433-522.</t>
         </is>
